--- a/extensions/icdm2016/doc-Experiments/ExperimentsResultsIndicators.xlsx
+++ b/extensions/icdm2016/doc-Experiments/ExperimentsResultsIndicators.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22340" tabRatio="500"/>
+    <workbookView xWindow="-30740" yWindow="8000" windowWidth="38400" windowHeight="22340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="indicatorsGraph" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>original</t>
   </si>
   <si>
-    <t>indicators+ur</t>
-  </si>
-  <si>
     <t>ur</t>
   </si>
   <si>
     <t>indicators</t>
+  </si>
+  <si>
+    <t>introduc-ur</t>
   </si>
 </sst>
 </file>
@@ -80,8 +80,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -107,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -118,6 +134,14 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -128,6 +152,14 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,229 +206,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>indicatorsData!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>indicatorsData!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>indicators+ur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>indicatorsData!$D$2:$D$64</c:f>
+              <c:f>indicatorsData!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>4299.65938045024</c:v>
+                  <c:v>4300.31444432464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5749.37473996972</c:v>
+                  <c:v>5761.5623584148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9743.09345687085</c:v>
+                  <c:v>9823.5115475003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16151.3108401427</c:v>
+                  <c:v>16424.4990978328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23971.093033379</c:v>
+                  <c:v>24503.2224807083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30121.3899048595</c:v>
+                  <c:v>30764.1509403091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33491.9776109356</c:v>
+                  <c:v>34120.8180344599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36517.4184451495</c:v>
+                  <c:v>37182.4246284544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37570.9901598392</c:v>
+                  <c:v>38272.9064578456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39289.8279819907</c:v>
+                  <c:v>40027.8887525114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39902.7679794784</c:v>
+                  <c:v>40701.3004960209</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40184.2549124965</c:v>
+                  <c:v>41055.7607633189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41498.1504024654</c:v>
+                  <c:v>42484.5723389692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40615.6771522779</c:v>
+                  <c:v>41680.8514927931</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41169.4170674661</c:v>
+                  <c:v>42314.3359433425</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40623.7248409949</c:v>
+                  <c:v>41810.6749683702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40170.4315616034</c:v>
+                  <c:v>41394.5976516724</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40508.4245333545</c:v>
+                  <c:v>41751.1406907647</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40559.9027254724</c:v>
+                  <c:v>41785.897032373</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41881.4649664055</c:v>
+                  <c:v>43106.9317139203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41924.0409752373</c:v>
+                  <c:v>43130.9690159218</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42470.3298662419</c:v>
+                  <c:v>43689.5324162388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44333.2772822828</c:v>
+                  <c:v>45618.130548017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44103.1640871934</c:v>
+                  <c:v>45413.1691178334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45377.4070155161</c:v>
+                  <c:v>46744.5585076087</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44567.1582170616</c:v>
+                  <c:v>45857.1738451426</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44252.0800739596</c:v>
+                  <c:v>45432.4189091993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44867.9415683212</c:v>
+                  <c:v>45990.3597424884</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44622.3938825698</c:v>
+                  <c:v>45678.7369870303</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46727.6906629501</c:v>
+                  <c:v>47762.2221150882</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46268.5577621101</c:v>
+                  <c:v>47238.774022574</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47365.2407401908</c:v>
+                  <c:v>48322.4709647731</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>48481.0840603954</c:v>
+                  <c:v>49413.296956661</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49141.1387717507</c:v>
+                  <c:v>50037.920187184</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49854.9041779514</c:v>
+                  <c:v>50720.7418537533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48253.7470445086</c:v>
+                  <c:v>49038.7775708801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48174.78101041</c:v>
+                  <c:v>48894.911378963</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48957.7245557706</c:v>
+                  <c:v>49641.9994687325</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>48692.9686143668</c:v>
+                  <c:v>49344.3683498028</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49188.9388089566</c:v>
+                  <c:v>49823.2840411456</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49831.8303010424</c:v>
+                  <c:v>50461.6286708597</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51136.7911327143</c:v>
+                  <c:v>51766.2039835456</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50659.4252900473</c:v>
+                  <c:v>51266.7035212494</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51943.1180558782</c:v>
+                  <c:v>52526.4776441721</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51272.2966945847</c:v>
+                  <c:v>51785.2151622749</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51813.9420405498</c:v>
+                  <c:v>52260.9604497668</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>52306.8338436368</c:v>
+                  <c:v>52685.3083152069</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>52641.7964038047</c:v>
+                  <c:v>52944.6599892134</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53518.8297541172</c:v>
+                  <c:v>53755.8941917639</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>55334.2261366139</c:v>
+                  <c:v>55533.9434789245</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>53870.9637307227</c:v>
+                  <c:v>54038.901834959</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53818.0339986418</c:v>
+                  <c:v>53942.2715594495</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52976.1945555012</c:v>
+                  <c:v>53032.8069025243</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53576.5213108851</c:v>
+                  <c:v>53560.3215305473</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53165.3503162126</c:v>
+                  <c:v>53081.3660796571</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>54223.9810704099</c:v>
+                  <c:v>54074.393696707</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>55241.515267452</c:v>
+                  <c:v>55039.3626257668</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56516.945683517</c:v>
+                  <c:v>56285.2807311885</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>55470.5351692672</c:v>
+                  <c:v>55235.3220902707</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>55973.4160391706</c:v>
+                  <c:v>55710.6958432036</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54445.7999327496</c:v>
+                  <c:v>54151.3446897497</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56059.9478889287</c:v>
+                  <c:v>55705.1780654163</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>54094.3507906771</c:v>
+                  <c:v>53702.9143979943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,8 +414,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2102393592"/>
-        <c:axId val="-2060315816"/>
+        <c:axId val="2085161480"/>
+        <c:axId val="2085164296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -439,6 +440,223 @@
           <c:val>
             <c:numRef>
               <c:f>indicatorsData!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3695.65021971595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3695.64288204763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3764.29305356671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3718.52749406697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3791.30304292174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3803.72799897011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791.61463752327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3884.28713462393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3849.76180973566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3919.18325005499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3907.4585794202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3884.41453742356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3954.15913955186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3872.15364528062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3963.22088083463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3929.1251371765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3916.12361253498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3963.02894804117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3963.24743631208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4047.27700707788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4006.75720930535</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3995.21947058144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4079.76170668431</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4007.05519532118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4120.1955557965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4078.96159094575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4068.6627906582</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4136.99222706312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4103.76659530949</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4246.19102781828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4132.19327652043</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4158.03718816982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4182.96134723975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4199.71285572122</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4276.1589632368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4170.46488114324</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4201.71043798629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4265.15217301364</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4228.3925321644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4231.76352339154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4231.99160954937</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4279.57881358865</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4207.32209970519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4317.75312868019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4303.15543058911</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4365.79906845585</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4410.94575019509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4403.80379997036</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4407.27929502758</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4477.81529710848</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4322.92430423208</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4328.39485254515</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4292.50423902698</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4331.88865992515</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4274.56984403605</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4293.46089839213</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4282.02995835056</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4284.16532577179</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4160.10284170977</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4182.36105110252</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4075.44941862741</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4182.74736272562</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4010.35085827602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>indicatorsData!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>introduc-ur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>indicatorsData!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -646,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099991320"/>
-        <c:axId val="-2075477304"/>
+        <c:axId val="2085170568"/>
+        <c:axId val="2085167624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2102393592"/>
+        <c:axId val="2085161480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060315816"/>
+        <c:crossAx val="2085164296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060315816"/>
+        <c:axId val="2085164296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,12 +896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102393592"/>
+        <c:crossAx val="2085161480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2075477304"/>
+        <c:axId val="2085167624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,12 +911,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099991320"/>
+        <c:crossAx val="2085170568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2099991320"/>
+        <c:axId val="2085170568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075477304"/>
+        <c:crossAx val="2085167624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="203" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -742,7 +960,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9210000" cy="5620000"/>
+    <xdr:ext cx="9209064" cy="5611773"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1090,7 +1308,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1106,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1122,8 +1340,11 @@
       <c r="B2">
         <v>3695.6502197159498</v>
       </c>
+      <c r="C2">
+        <v>4300.3144443246401</v>
+      </c>
       <c r="D2">
-        <v>4299.65938045024</v>
+        <v>3695.6502197159498</v>
       </c>
       <c r="E2">
         <v>10.220000000000001</v>
@@ -1136,8 +1357,11 @@
       <c r="B3">
         <v>3695.6428820476299</v>
       </c>
+      <c r="C3">
+        <v>5761.5623584147997</v>
+      </c>
       <c r="D3">
-        <v>5749.3747399697204</v>
+        <v>3695.6428820476299</v>
       </c>
       <c r="E3">
         <v>10.220000000000001</v>
@@ -1150,8 +1374,11 @@
       <c r="B4">
         <v>3764.2930535667101</v>
       </c>
+      <c r="C4">
+        <v>9823.5115475003004</v>
+      </c>
       <c r="D4">
-        <v>9743.0934568708508</v>
+        <v>3764.2930535667101</v>
       </c>
       <c r="E4">
         <v>12.18</v>
@@ -1164,8 +1391,11 @@
       <c r="B5">
         <v>3718.5274940669701</v>
       </c>
+      <c r="C5">
+        <v>16424.499097832799</v>
+      </c>
       <c r="D5">
-        <v>16151.3108401427</v>
+        <v>3718.5274940669701</v>
       </c>
       <c r="E5">
         <v>12.18</v>
@@ -1178,8 +1408,11 @@
       <c r="B6">
         <v>3791.3030429217401</v>
       </c>
+      <c r="C6">
+        <v>24503.2224807083</v>
+      </c>
       <c r="D6">
-        <v>23971.093033378998</v>
+        <v>3791.3030429217401</v>
       </c>
       <c r="E6">
         <v>12.18</v>
@@ -1192,8 +1425,11 @@
       <c r="B7">
         <v>3803.7279989701101</v>
       </c>
+      <c r="C7">
+        <v>30764.1509403091</v>
+      </c>
       <c r="D7">
-        <v>30121.389904859501</v>
+        <v>3803.7279989701101</v>
       </c>
       <c r="E7">
         <v>10.45</v>
@@ -1206,8 +1442,11 @@
       <c r="B8">
         <v>3791.6146375232702</v>
       </c>
+      <c r="C8">
+        <v>34120.818034459902</v>
+      </c>
       <c r="D8">
-        <v>33491.977610935603</v>
+        <v>3791.6146375232702</v>
       </c>
       <c r="E8">
         <v>10.45</v>
@@ -1220,8 +1459,11 @@
       <c r="B9">
         <v>3884.2871346239299</v>
       </c>
+      <c r="C9">
+        <v>37182.424628454399</v>
+      </c>
       <c r="D9">
-        <v>36517.418445149502</v>
+        <v>3884.2871346239299</v>
       </c>
       <c r="E9">
         <v>13.62</v>
@@ -1234,8 +1476,11 @@
       <c r="B10">
         <v>3849.7618097356599</v>
       </c>
+      <c r="C10">
+        <v>38272.906457845602</v>
+      </c>
       <c r="D10">
-        <v>37570.990159839203</v>
+        <v>3849.7618097356599</v>
       </c>
       <c r="E10">
         <v>13.62</v>
@@ -1248,8 +1493,11 @@
       <c r="B11">
         <v>3919.1832500549899</v>
       </c>
+      <c r="C11">
+        <v>40027.888752511397</v>
+      </c>
       <c r="D11">
-        <v>39289.827981990697</v>
+        <v>3919.1832500549899</v>
       </c>
       <c r="E11">
         <v>13.62</v>
@@ -1262,8 +1510,11 @@
       <c r="B12">
         <v>3907.4585794201998</v>
       </c>
+      <c r="C12">
+        <v>40701.3004960209</v>
+      </c>
       <c r="D12">
-        <v>39902.767979478398</v>
+        <v>3907.4585794201998</v>
       </c>
       <c r="E12">
         <v>17.57</v>
@@ -1276,8 +1527,11 @@
       <c r="B13">
         <v>3884.41453742356</v>
       </c>
+      <c r="C13">
+        <v>41055.760763318904</v>
+      </c>
       <c r="D13">
-        <v>40184.254912496501</v>
+        <v>3884.41453742356</v>
       </c>
       <c r="E13">
         <v>17.57</v>
@@ -1290,8 +1544,11 @@
       <c r="B14">
         <v>3954.1591395518599</v>
       </c>
+      <c r="C14">
+        <v>42484.572338969199</v>
+      </c>
       <c r="D14">
-        <v>41498.150402465399</v>
+        <v>3954.1591395518599</v>
       </c>
       <c r="E14">
         <v>21.74</v>
@@ -1304,8 +1561,11 @@
       <c r="B15">
         <v>3872.1536452806199</v>
       </c>
+      <c r="C15">
+        <v>41680.851492793103</v>
+      </c>
       <c r="D15">
-        <v>40615.677152277902</v>
+        <v>3872.1536452806199</v>
       </c>
       <c r="E15">
         <v>21.74</v>
@@ -1318,8 +1578,11 @@
       <c r="B16">
         <v>3963.22088083463</v>
       </c>
+      <c r="C16">
+        <v>42314.335943342499</v>
+      </c>
       <c r="D16">
-        <v>41169.4170674661</v>
+        <v>3963.22088083463</v>
       </c>
       <c r="E16">
         <v>21.74</v>
@@ -1332,8 +1595,11 @@
       <c r="B17">
         <v>3929.1251371765002</v>
       </c>
+      <c r="C17">
+        <v>41810.6749683702</v>
+      </c>
       <c r="D17">
-        <v>40623.724840994902</v>
+        <v>3929.1251371765002</v>
       </c>
       <c r="E17">
         <v>24.98</v>
@@ -1346,8 +1612,11 @@
       <c r="B18">
         <v>3916.1236125349801</v>
       </c>
+      <c r="C18">
+        <v>41394.597651672397</v>
+      </c>
       <c r="D18">
-        <v>40170.4315616034</v>
+        <v>3916.1236125349801</v>
       </c>
       <c r="E18">
         <v>24.98</v>
@@ -1360,8 +1629,11 @@
       <c r="B19">
         <v>3963.0289480411702</v>
       </c>
+      <c r="C19">
+        <v>41751.140690764703</v>
+      </c>
       <c r="D19">
-        <v>40508.424533354497</v>
+        <v>3963.0289480411702</v>
       </c>
       <c r="E19">
         <v>24.72</v>
@@ -1374,8 +1646,11 @@
       <c r="B20">
         <v>3963.24743631208</v>
       </c>
+      <c r="C20">
+        <v>41785.897032373003</v>
+      </c>
       <c r="D20">
-        <v>40559.902725472399</v>
+        <v>3963.24743631208</v>
       </c>
       <c r="E20">
         <v>24.72</v>
@@ -1388,8 +1663,11 @@
       <c r="B21">
         <v>4047.2770070778802</v>
       </c>
+      <c r="C21">
+        <v>43106.931713920298</v>
+      </c>
       <c r="D21">
-        <v>41881.464966405503</v>
+        <v>4047.2770070778802</v>
       </c>
       <c r="E21">
         <v>24.72</v>
@@ -1402,8 +1680,11 @@
       <c r="B22">
         <v>4006.75720930535</v>
       </c>
+      <c r="C22">
+        <v>43130.969015921801</v>
+      </c>
       <c r="D22">
-        <v>41924.040975237302</v>
+        <v>4006.75720930535</v>
       </c>
       <c r="E22">
         <v>27.47</v>
@@ -1416,8 +1697,11 @@
       <c r="B23">
         <v>3995.21947058144</v>
       </c>
+      <c r="C23">
+        <v>43689.532416238799</v>
+      </c>
       <c r="D23">
-        <v>42470.329866241897</v>
+        <v>3995.21947058144</v>
       </c>
       <c r="E23">
         <v>27.47</v>
@@ -1430,8 +1714,11 @@
       <c r="B24">
         <v>4079.76170668431</v>
       </c>
+      <c r="C24">
+        <v>45618.130548016998</v>
+      </c>
       <c r="D24">
-        <v>44333.277282282797</v>
+        <v>4079.76170668431</v>
       </c>
       <c r="E24">
         <v>30.64</v>
@@ -1444,8 +1731,11 @@
       <c r="B25">
         <v>4007.0551953211798</v>
       </c>
+      <c r="C25">
+        <v>45413.1691178334</v>
+      </c>
       <c r="D25">
-        <v>44103.1640871934</v>
+        <v>4007.0551953211798</v>
       </c>
       <c r="E25">
         <v>30.64</v>
@@ -1458,8 +1748,11 @@
       <c r="B26">
         <v>4120.1955557965002</v>
       </c>
+      <c r="C26">
+        <v>46744.558507608701</v>
+      </c>
       <c r="D26">
-        <v>45377.407015516103</v>
+        <v>4120.1955557965002</v>
       </c>
       <c r="E26">
         <v>30.64</v>
@@ -1472,8 +1765,11 @@
       <c r="B27">
         <v>4078.9615909457498</v>
       </c>
+      <c r="C27">
+        <v>45857.173845142599</v>
+      </c>
       <c r="D27">
-        <v>44567.158217061602</v>
+        <v>4078.9615909457498</v>
       </c>
       <c r="E27">
         <v>24.46</v>
@@ -1486,8 +1782,11 @@
       <c r="B28">
         <v>4068.6627906581998</v>
       </c>
+      <c r="C28">
+        <v>45432.418909199303</v>
+      </c>
       <c r="D28">
-        <v>44252.080073959602</v>
+        <v>4068.6627906581998</v>
       </c>
       <c r="E28">
         <v>24.46</v>
@@ -1500,8 +1799,11 @@
       <c r="B29">
         <v>4136.9922270631196</v>
       </c>
+      <c r="C29">
+        <v>45990.359742488399</v>
+      </c>
       <c r="D29">
-        <v>44867.941568321199</v>
+        <v>4136.9922270631196</v>
       </c>
       <c r="E29">
         <v>27.79</v>
@@ -1514,8 +1816,11 @@
       <c r="B30">
         <v>4103.7665953094902</v>
       </c>
+      <c r="C30">
+        <v>45678.736987030301</v>
+      </c>
       <c r="D30">
-        <v>44622.393882569799</v>
+        <v>4103.7665953094902</v>
       </c>
       <c r="E30">
         <v>27.79</v>
@@ -1528,8 +1833,11 @@
       <c r="B31">
         <v>4246.1910278182804</v>
       </c>
+      <c r="C31">
+        <v>47762.222115088203</v>
+      </c>
       <c r="D31">
-        <v>46727.690662950103</v>
+        <v>4246.1910278182804</v>
       </c>
       <c r="E31">
         <v>27.79</v>
@@ -1542,8 +1850,11 @@
       <c r="B32">
         <v>4132.1932765204301</v>
       </c>
+      <c r="C32">
+        <v>47238.774022573998</v>
+      </c>
       <c r="D32">
-        <v>46268.557762110097</v>
+        <v>4132.1932765204301</v>
       </c>
       <c r="E32">
         <v>29.43</v>
@@ -1556,8 +1867,11 @@
       <c r="B33">
         <v>4158.0371881698202</v>
       </c>
+      <c r="C33">
+        <v>48322.4709647731</v>
+      </c>
       <c r="D33">
-        <v>47365.240740190799</v>
+        <v>4158.0371881698202</v>
       </c>
       <c r="E33">
         <v>29.43</v>
@@ -1570,8 +1884,11 @@
       <c r="B34">
         <v>4182.9613472397496</v>
       </c>
+      <c r="C34">
+        <v>49413.296956660997</v>
+      </c>
       <c r="D34">
-        <v>48481.084060395398</v>
+        <v>4182.9613472397496</v>
       </c>
       <c r="E34">
         <v>27.49</v>
@@ -1584,8 +1901,11 @@
       <c r="B35">
         <v>4199.71285572122</v>
       </c>
+      <c r="C35">
+        <v>50037.920187183998</v>
+      </c>
       <c r="D35">
-        <v>49141.138771750702</v>
+        <v>4199.71285572122</v>
       </c>
       <c r="E35">
         <v>27.49</v>
@@ -1598,8 +1918,11 @@
       <c r="B36">
         <v>4276.1589632368004</v>
       </c>
+      <c r="C36">
+        <v>50720.741853753301</v>
+      </c>
       <c r="D36">
-        <v>49854.904177951401</v>
+        <v>4276.1589632368004</v>
       </c>
       <c r="E36">
         <v>27.49</v>
@@ -1612,8 +1935,11 @@
       <c r="B37">
         <v>4170.4648811432398</v>
       </c>
+      <c r="C37">
+        <v>49038.777570880098</v>
+      </c>
       <c r="D37">
-        <v>48253.7470445086</v>
+        <v>4170.4648811432398</v>
       </c>
       <c r="E37">
         <v>27.09</v>
@@ -1626,8 +1952,11 @@
       <c r="B38">
         <v>4201.7104379862903</v>
       </c>
+      <c r="C38">
+        <v>48894.911378962999</v>
+      </c>
       <c r="D38">
-        <v>48174.781010409999</v>
+        <v>4201.7104379862903</v>
       </c>
       <c r="E38">
         <v>27.09</v>
@@ -1640,8 +1969,11 @@
       <c r="B39">
         <v>4265.1521730136401</v>
       </c>
+      <c r="C39">
+        <v>49641.999468732502</v>
+      </c>
       <c r="D39">
-        <v>48957.724555770597</v>
+        <v>4265.1521730136401</v>
       </c>
       <c r="E39">
         <v>32.04</v>
@@ -1654,8 +1986,11 @@
       <c r="B40">
         <v>4228.3925321644001</v>
       </c>
+      <c r="C40">
+        <v>49344.368349802797</v>
+      </c>
       <c r="D40">
-        <v>48692.9686143668</v>
+        <v>4228.3925321644001</v>
       </c>
       <c r="E40">
         <v>32.04</v>
@@ -1668,8 +2003,11 @@
       <c r="B41">
         <v>4231.7635233915398</v>
       </c>
+      <c r="C41">
+        <v>49823.284041145598</v>
+      </c>
       <c r="D41">
-        <v>49188.938808956598</v>
+        <v>4231.7635233915398</v>
       </c>
       <c r="E41">
         <v>35.29</v>
@@ -1682,8 +2020,11 @@
       <c r="B42">
         <v>4231.99160954937</v>
       </c>
+      <c r="C42">
+        <v>50461.628670859704</v>
+      </c>
       <c r="D42">
-        <v>49831.830301042399</v>
+        <v>4231.99160954937</v>
       </c>
       <c r="E42">
         <v>35.29</v>
@@ -1696,8 +2037,11 @@
       <c r="B43">
         <v>4279.5788135886496</v>
       </c>
+      <c r="C43">
+        <v>51766.203983545602</v>
+      </c>
       <c r="D43">
-        <v>51136.791132714301</v>
+        <v>4279.5788135886496</v>
       </c>
       <c r="E43">
         <v>35.57</v>
@@ -1710,8 +2054,11 @@
       <c r="B44">
         <v>4207.3220997051903</v>
       </c>
+      <c r="C44">
+        <v>51266.703521249401</v>
+      </c>
       <c r="D44">
-        <v>50659.4252900473</v>
+        <v>4207.3220997051903</v>
       </c>
       <c r="E44">
         <v>35.57</v>
@@ -1724,8 +2071,11 @@
       <c r="B45">
         <v>4317.7531286801895</v>
       </c>
+      <c r="C45">
+        <v>52526.477644172097</v>
+      </c>
       <c r="D45">
-        <v>51943.1180558782</v>
+        <v>4317.7531286801895</v>
       </c>
       <c r="E45">
         <v>33.21</v>
@@ -1738,8 +2088,11 @@
       <c r="B46">
         <v>4303.1554305891104</v>
       </c>
+      <c r="C46">
+        <v>51785.215162274901</v>
+      </c>
       <c r="D46">
-        <v>51272.2966945847</v>
+        <v>4303.1554305891104</v>
       </c>
       <c r="E46">
         <v>33.21</v>
@@ -1752,8 +2105,11 @@
       <c r="B47">
         <v>4365.7990684558499</v>
       </c>
+      <c r="C47">
+        <v>52260.960449766797</v>
+      </c>
       <c r="D47">
-        <v>51813.942040549802</v>
+        <v>4365.7990684558499</v>
       </c>
       <c r="E47">
         <v>35.28</v>
@@ -1766,8 +2122,11 @@
       <c r="B48">
         <v>4410.9457501950901</v>
       </c>
+      <c r="C48">
+        <v>52685.308315206901</v>
+      </c>
       <c r="D48">
-        <v>52306.833843636799</v>
+        <v>4410.9457501950901</v>
       </c>
       <c r="E48">
         <v>35.28</v>
@@ -1780,8 +2139,11 @@
       <c r="B49">
         <v>4403.8037999703602</v>
       </c>
+      <c r="C49">
+        <v>52944.659989213404</v>
+      </c>
       <c r="D49">
-        <v>52641.796403804699</v>
+        <v>4403.8037999703602</v>
       </c>
       <c r="E49">
         <v>35.32</v>
@@ -1794,8 +2156,11 @@
       <c r="B50">
         <v>4407.2792950275798</v>
       </c>
+      <c r="C50">
+        <v>53755.894191763902</v>
+      </c>
       <c r="D50">
-        <v>53518.8297541172</v>
+        <v>4407.2792950275798</v>
       </c>
       <c r="E50">
         <v>35.32</v>
@@ -1808,8 +2173,11 @@
       <c r="B51">
         <v>4477.8152971084801</v>
       </c>
+      <c r="C51">
+        <v>55533.943478924499</v>
+      </c>
       <c r="D51">
-        <v>55334.226136613899</v>
+        <v>4477.8152971084801</v>
       </c>
       <c r="E51">
         <v>38.44</v>
@@ -1822,8 +2190,11 @@
       <c r="B52">
         <v>4322.9243042320804</v>
       </c>
+      <c r="C52">
+        <v>54038.901834958997</v>
+      </c>
       <c r="D52">
-        <v>53870.963730722702</v>
+        <v>4322.9243042320804</v>
       </c>
       <c r="E52">
         <v>38.44</v>
@@ -1836,8 +2207,11 @@
       <c r="B53">
         <v>4328.3948525451497</v>
       </c>
+      <c r="C53">
+        <v>53942.271559449502</v>
+      </c>
       <c r="D53">
-        <v>53818.033998641797</v>
+        <v>4328.3948525451497</v>
       </c>
       <c r="E53">
         <v>36.6</v>
@@ -1850,8 +2224,11 @@
       <c r="B54">
         <v>4292.50423902698</v>
       </c>
+      <c r="C54">
+        <v>53032.806902524302</v>
+      </c>
       <c r="D54">
-        <v>52976.194555501199</v>
+        <v>4292.50423902698</v>
       </c>
       <c r="E54">
         <v>36.6</v>
@@ -1864,8 +2241,11 @@
       <c r="B55">
         <v>4331.88865992515</v>
       </c>
+      <c r="C55">
+        <v>53560.321530547299</v>
+      </c>
       <c r="D55">
-        <v>53576.521310885102</v>
+        <v>4331.88865992515</v>
       </c>
       <c r="E55">
         <v>37.11</v>
@@ -1878,8 +2258,11 @@
       <c r="B56">
         <v>4274.5698440360502</v>
       </c>
+      <c r="C56">
+        <v>53081.366079657098</v>
+      </c>
       <c r="D56">
-        <v>53165.3503162126</v>
+        <v>4274.5698440360502</v>
       </c>
       <c r="E56">
         <v>37.11</v>
@@ -1892,8 +2275,11 @@
       <c r="B57">
         <v>4293.4608983921298</v>
       </c>
+      <c r="C57">
+        <v>54074.393696706997</v>
+      </c>
       <c r="D57">
-        <v>54223.9810704099</v>
+        <v>4293.4608983921298</v>
       </c>
       <c r="E57">
         <v>35.74</v>
@@ -1906,8 +2292,11 @@
       <c r="B58">
         <v>4282.0299583505603</v>
       </c>
+      <c r="C58">
+        <v>55039.3626257668</v>
+      </c>
       <c r="D58">
-        <v>55241.515267452</v>
+        <v>4282.0299583505603</v>
       </c>
       <c r="E58">
         <v>35.74</v>
@@ -1920,8 +2309,11 @@
       <c r="B59">
         <v>4284.1653257717899</v>
       </c>
+      <c r="C59">
+        <v>56285.280731188497</v>
+      </c>
       <c r="D59">
-        <v>56516.945683516999</v>
+        <v>4284.1653257717899</v>
       </c>
       <c r="E59">
         <v>38.770000000000003</v>
@@ -1934,8 +2326,11 @@
       <c r="B60">
         <v>4160.1028417097696</v>
       </c>
+      <c r="C60">
+        <v>55235.322090270703</v>
+      </c>
       <c r="D60">
-        <v>55470.535169267197</v>
+        <v>4160.1028417097696</v>
       </c>
       <c r="E60">
         <v>38.770000000000003</v>
@@ -1948,8 +2343,11 @@
       <c r="B61">
         <v>4182.3610511025199</v>
       </c>
+      <c r="C61">
+        <v>55710.695843203597</v>
+      </c>
       <c r="D61">
-        <v>55973.416039170603</v>
+        <v>4182.3610511025199</v>
       </c>
       <c r="E61">
         <v>36.25</v>
@@ -1962,8 +2360,11 @@
       <c r="B62">
         <v>4075.4494186274101</v>
       </c>
+      <c r="C62">
+        <v>54151.344689749698</v>
+      </c>
       <c r="D62">
-        <v>54445.7999327496</v>
+        <v>4075.4494186274101</v>
       </c>
       <c r="E62">
         <v>36.25</v>
@@ -1976,8 +2377,11 @@
       <c r="B63">
         <v>4182.7473627256204</v>
       </c>
+      <c r="C63">
+        <v>55705.178065416301</v>
+      </c>
       <c r="D63">
-        <v>56059.947888928698</v>
+        <v>4182.7473627256204</v>
       </c>
       <c r="E63">
         <v>33.35</v>
@@ -1990,8 +2394,11 @@
       <c r="B64">
         <v>4010.3508582760201</v>
       </c>
+      <c r="C64">
+        <v>53702.914397994296</v>
+      </c>
       <c r="D64">
-        <v>54094.350790677097</v>
+        <v>4010.3508582760201</v>
       </c>
       <c r="E64">
         <v>33.35</v>
